--- a/MappingPosologie/ig/StructureDefinition-FrRatioUcum.xlsx
+++ b/MappingPosologie/ig/StructureDefinition-FrRatioUcum.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interopsante.org/fhir/StructureDefinition/FrRatioUcum</t>
+    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioUcum</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18</t>
+    <t>2024-12-26T10:27:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Copyright</t>
-  </si>
-  <si>
-    <t>Interop'Santé 2021</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -338,6 +335,9 @@
     <t>Ratio.numerator</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum}
 </t>
   </si>
@@ -348,23 +348,20 @@
     <t>unit of measure SHALL be UCUM encoded</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use explicitely excludes the use of the simpleQuantity "comparator" element.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>.numerator</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
   </si>
   <si>
     <t>Denominator with UCUM unit</t>
+  </si>
+  <si>
+    <t>.denominator</t>
   </si>
 </sst>
 </file>
@@ -612,56 +609,54 @@
       <c r="A14" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -716,131 +711,131 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.1875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
       </c>
-      <c r="AK1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -848,31 +843,31 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -922,33 +917,33 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -956,28 +951,28 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1028,45 +1023,45 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
       </c>
@@ -1077,16 +1072,16 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1124,45 +1119,45 @@
         <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AF4" t="s" s="2">
+      <c r="AG4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AG4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1170,10 +1165,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1182,7 +1177,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>105</v>
@@ -1193,9 +1188,7 @@
       <c r="M5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>108</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>20</v>
@@ -1244,33 +1237,33 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1278,10 +1271,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1290,20 +1283,18 @@
         <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N6" t="s" s="2">
-        <v>108</v>
-      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
         <v>20</v>
@@ -1352,25 +1343,25 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
